--- a/data/predictor_sources.xlsx
+++ b/data/predictor_sources.xlsx
@@ -1,26 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicarapson/Desktop/Projects/Data/2-In Progress/Forecasting Transit Recovery/Analysis/predictor_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicarapson/Desktop/Projects/Website/posts/2022-05-10-transit-forecast/analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0B1380-9A4A-D04A-A3B8-9D7B61B1AE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3888E2E7-623E-3040-905B-9517C0512F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="4760" windowWidth="28040" windowHeight="17040" xr2:uid="{8D632FEF-4AC5-6F44-A98B-224F27C73E56}"/>
+    <workbookView xWindow="760" yWindow="960" windowWidth="28040" windowHeight="17040" activeTab="1" xr2:uid="{8D632FEF-4AC5-6F44-A98B-224F27C73E56}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
-    <sheet name="vaccines" sheetId="2" r:id="rId2"/>
-    <sheet name="mobility" sheetId="3" r:id="rId3"/>
+    <sheet name="mobility" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cases!$A$1:$F$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">mobility!$A$1:$H$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">vaccines!$A$1:$F$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">mobility!$A$1:$H$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="73">
   <si>
     <t>geography</t>
   </si>
@@ -107,12 +105,6 @@
     <t>https://github.com/M3IT/COVID-19_Data/blob/master/Data/COVID_AU_state.csv</t>
   </si>
   <si>
-    <t>Province</t>
-  </si>
-  <si>
-    <t>Alberta</t>
-  </si>
-  <si>
     <t>Health Region</t>
   </si>
   <si>
@@ -143,36 +135,12 @@
     <t>CityofToronto_COVID-19_Status_Public_Reporting.xlsx</t>
   </si>
   <si>
-    <t>https://github.com/M3IT/COVID-19_Data/blob/master/Data/COVID19_Data_Hub_vacc_2.csv</t>
-  </si>
-  <si>
-    <t>COVID19_Data_Hub_vacc_2.csv</t>
-  </si>
-  <si>
-    <t>https://health-infobase.canada.ca/covid-19/vaccination-coverage/</t>
-  </si>
-  <si>
-    <t>vaccination-coverage-map.csv</t>
-  </si>
-  <si>
-    <t>https://www.toronto.ca/home/covid-19/covid-19-pandemic-data/covid-19-vaccine-data/</t>
-  </si>
-  <si>
     <t>https://coronavirus.data.gov.uk/details/cases?areaType=region&amp;areaName=London</t>
   </si>
   <si>
     <t>population</t>
   </si>
   <si>
-    <t>https://coronavirus.data.gov.uk/details/vaccinations?areaType=region&amp;areaName=London</t>
-  </si>
-  <si>
-    <t>Graphique-1.3_vaccination.csv</t>
-  </si>
-  <si>
-    <t>https://www.inspq.qc.ca/covid-19/donnees/vaccination</t>
-  </si>
-  <si>
     <t>graph_1-2_page_par_region.csv</t>
   </si>
   <si>
@@ -188,12 +156,6 @@
     <t>data-by-day.csv</t>
   </si>
   <si>
-    <t>https://github.com/nychealth/covid-vaccine-data/blob/main/doses/doses-by-day.csv</t>
-  </si>
-  <si>
-    <t>doses-by-day.csv</t>
-  </si>
-  <si>
     <t>Region</t>
   </si>
   <si>
@@ -203,15 +165,6 @@
     <t>https://www.data.gouv.fr/en/datasets/taux-dincidence-de-lepidemie-de-covid-19/</t>
   </si>
   <si>
-    <t>https://www.data.gouv.fr/fr/datasets/donnees-relatives-aux-personnes-vaccinees-contre-la-covid-19-1/</t>
-  </si>
-  <si>
-    <t>https://data.cdc.gov/Vaccinations/COVID-19-Vaccinations-in-the-United-States-County/8xkx-amqh/data</t>
-  </si>
-  <si>
-    <t>COVID-19_Vaccinations_in_the_United_States_County.csv</t>
-  </si>
-  <si>
     <t>Maricopa</t>
   </si>
   <si>
@@ -227,15 +180,6 @@
     <t>metro_area</t>
   </si>
   <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>https://dshs.texas.gov/coronavirus/AdditionalData.aspx</t>
-  </si>
-  <si>
-    <t>COVID-19 Vaccine Data by County.xlsx</t>
-  </si>
-  <si>
     <t>2020_CA_Region_Mobility_Report.csv</t>
   </si>
   <si>
@@ -267,15 +211,6 @@
   </si>
   <si>
     <t>Bronx County; Kings County; New York County; Queens County; Richmond County</t>
-  </si>
-  <si>
-    <t>time trend.csv</t>
-  </si>
-  <si>
-    <t>data_2021-Dec-27.csv</t>
-  </si>
-  <si>
-    <t>vacsi12-reg-2021-12-27-19h05.csv</t>
   </si>
   <si>
     <t>filename1</t>
@@ -716,7 +651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB9A9A3-9AB1-494C-9825-821FC948C8D4}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -732,7 +667,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
         <v>18</v>
@@ -741,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -775,19 +710,19 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3">
         <v>1710560</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -795,19 +730,19 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D4" s="3">
         <v>5150233</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -815,7 +750,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -824,10 +759,10 @@
         <v>2635516</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -835,19 +770,19 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D6" s="4">
         <v>4713325</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -855,7 +790,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -864,10 +799,10 @@
         <v>9002488</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -875,7 +810,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -884,30 +819,30 @@
         <v>2079015</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D9" s="3">
         <v>8804190</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -915,19 +850,19 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1">
         <v>12278210</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -935,7 +870,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -944,10 +879,10 @@
         <v>1584064</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -955,19 +890,19 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D12" s="3">
         <v>4485414</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -975,19 +910,19 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D13" s="3">
         <v>2003554</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -995,7 +930,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1004,10 +939,10 @@
         <v>3338330</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1015,7 +950,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -1024,10 +959,10 @@
         <v>881549</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1035,7 +970,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -1044,10 +979,10 @@
         <v>2716640</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1069,376 +1004,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0485B593-6612-7C4B-A7FA-939A2BE70860}">
-  <dimension ref="A1:F17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="89.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="3">
-        <v>5115451</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="3">
-        <v>4421876</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="3">
-        <v>5150233</v>
-      </c>
-      <c r="E4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="3">
-        <v>29145505</v>
-      </c>
-      <c r="E5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="3">
-        <v>29145505</v>
-      </c>
-      <c r="E6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3">
-        <v>9002488</v>
-      </c>
-      <c r="E7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2066545</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="3">
-        <v>8804190</v>
-      </c>
-      <c r="E9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="1">
-        <v>12278210</v>
-      </c>
-      <c r="E10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1584064</v>
-      </c>
-      <c r="E11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="3">
-        <v>4485414</v>
-      </c>
-      <c r="E12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="3">
-        <v>29145505</v>
-      </c>
-      <c r="E13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="3">
-        <v>3338330</v>
-      </c>
-      <c r="E14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="3">
-        <v>881549</v>
-      </c>
-      <c r="E15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="3">
-        <v>2716640</v>
-      </c>
-      <c r="E16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D17" s="3"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:F16" xr:uid="{0485B593-6612-7C4B-A7FA-939A2BE70860}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F16">
-      <sortCondition ref="A1:A16"/>
-    </sortState>
-  </autoFilter>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{4856B615-9B06-B243-87EC-56A8E67CC565}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{8B6972A9-06DE-BE4D-8932-78C119921625}"/>
-    <hyperlink ref="F16" r:id="rId3" xr:uid="{A1210DDA-F27F-A44A-8956-6D2FE7039C1E}"/>
-    <hyperlink ref="F8" r:id="rId4" xr:uid="{D60A42E7-4374-4A44-A5D0-3DFBE1A049B3}"/>
-    <hyperlink ref="F9" r:id="rId5" xr:uid="{BC3B6FD5-56CB-E143-B774-316F2C9F144B}"/>
-    <hyperlink ref="F10" r:id="rId6" xr:uid="{AE41458C-8574-1A4F-9FA5-B0660173DBEC}"/>
-    <hyperlink ref="F11" r:id="rId7" xr:uid="{27C3E282-CCBC-6244-8692-FC87470F8327}"/>
-    <hyperlink ref="F12" r:id="rId8" xr:uid="{B6B4276A-3819-6249-BD32-14724C69B5C2}"/>
-    <hyperlink ref="F14" r:id="rId9" xr:uid="{8840729E-58D9-564D-8B70-1243BA19963E}"/>
-    <hyperlink ref="F15" r:id="rId10" xr:uid="{8075FBDB-FF07-D64B-B0BE-F9EBBC986E6B}"/>
-    <hyperlink ref="F4" r:id="rId11" xr:uid="{5A814F30-69CC-144F-8BB1-035C09542D8B}"/>
-    <hyperlink ref="F5" r:id="rId12" xr:uid="{D20FD1E5-0BB8-C549-9B0B-BC41BF399641}"/>
-    <hyperlink ref="F2:F3" r:id="rId13" display="https://dshs.texas.gov/coronavirus/AdditionalData.aspx" xr:uid="{4DC8A95B-5B94-854E-8F4D-D1676F23C2DE}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8091EBDA-DA24-E443-ACBE-A0061CDF1C51}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1454,7 +1024,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
         <v>18</v>
@@ -1463,16 +1033,16 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="G1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -1483,7 +1053,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1492,16 +1062,16 @@
         <v>2560720</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1509,25 +1079,25 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D3" s="7">
         <v>1311022</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1535,25 +1105,25 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D4" s="7">
         <v>5150233</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1561,7 +1131,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1570,16 +1140,16 @@
         <v>2635516</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1587,25 +1157,25 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D6" s="8">
         <v>4713325</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="G6" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1613,7 +1183,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -1622,16 +1192,16 @@
         <v>9002488</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1639,7 +1209,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -1648,42 +1218,42 @@
         <v>4221000</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1691,7 +1261,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -1700,16 +1270,16 @@
         <v>2175601</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1717,7 +1287,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -1726,16 +1296,16 @@
         <v>1584064</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1743,25 +1313,25 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D12" s="3">
         <v>4485414</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1769,25 +1339,25 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D13" s="3">
         <v>2003554</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="G13" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1795,7 +1365,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1804,16 +1374,16 @@
         <v>3338330</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1821,7 +1391,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -1830,16 +1400,16 @@
         <v>881549</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="G15" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1847,7 +1417,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -1856,16 +1426,16 @@
         <v>2716640</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G16" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
